--- a/test4stocks.xlsx
+++ b/test4stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madisonmonte/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6884C22D-D279-AD4E-B307-37824EE81FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5319F03C-02CE-144C-94DB-F455686AA8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15140" xr2:uid="{4D1C9BB1-6744-2D47-B702-0F2CC657CF92}"/>
+    <workbookView xWindow="4400" yWindow="500" windowWidth="27240" windowHeight="15140" xr2:uid="{4D1C9BB1-6744-2D47-B702-0F2CC657CF92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>NVDA</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>CHOW</t>
+  </si>
+  <si>
+    <t>Ticker</t>
   </si>
 </sst>
 </file>
@@ -428,463 +431,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD20FCF-78A0-B643-A275-146E367B2E26}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>189.29</v>
       </c>
+      <c r="C2">
+        <v>189.29</v>
+      </c>
+      <c r="D2">
+        <v>188.96</v>
+      </c>
+      <c r="E2">
+        <v>189.07</v>
+      </c>
+      <c r="F2">
+        <v>283083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3">
-        <v>189.29</v>
+        <v>189.66</v>
       </c>
       <c r="C3">
-        <v>188.96</v>
+        <v>189.69</v>
       </c>
       <c r="D3">
-        <v>189.07</v>
+        <v>189.37</v>
       </c>
       <c r="E3">
-        <v>283083</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+        <v>189.38</v>
+      </c>
+      <c r="F3">
+        <v>178501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>189.75</v>
+      </c>
+      <c r="C4">
+        <v>189.76</v>
+      </c>
+      <c r="D4">
+        <v>189.34</v>
+      </c>
+      <c r="E4">
+        <v>189.35</v>
+      </c>
+      <c r="F4">
+        <v>169520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>189.28</v>
+      </c>
+      <c r="C5">
+        <v>189.4</v>
+      </c>
+      <c r="D5">
+        <v>189.08</v>
+      </c>
+      <c r="E5">
+        <v>189.1</v>
+      </c>
+      <c r="F5">
+        <v>187426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>188.94</v>
+      </c>
+      <c r="C6">
+        <v>189.38</v>
+      </c>
+      <c r="D6">
+        <v>188.94</v>
+      </c>
+      <c r="E6">
+        <v>189.32</v>
+      </c>
+      <c r="F6">
+        <v>224568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>189.58</v>
+      </c>
+      <c r="C7">
         <v>189.66</v>
       </c>
-      <c r="B4">
-        <v>189.69</v>
-      </c>
-      <c r="C4">
-        <v>189.37</v>
-      </c>
-      <c r="D4">
-        <v>189.38</v>
-      </c>
-      <c r="E4">
-        <v>178501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>189.75</v>
-      </c>
-      <c r="B5">
-        <v>189.76</v>
-      </c>
-      <c r="C5">
-        <v>189.34</v>
-      </c>
-      <c r="D5">
-        <v>189.35</v>
-      </c>
-      <c r="E5">
-        <v>169520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>189.28</v>
-      </c>
-      <c r="B6">
-        <v>189.4</v>
-      </c>
-      <c r="C6">
-        <v>189.08</v>
-      </c>
-      <c r="D6">
-        <v>189.1</v>
-      </c>
-      <c r="E6">
-        <v>187426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>188.94</v>
-      </c>
-      <c r="B7">
-        <v>189.38</v>
-      </c>
-      <c r="C7">
-        <v>188.94</v>
-      </c>
       <c r="D7">
-        <v>189.32</v>
+        <v>189.5</v>
       </c>
       <c r="E7">
-        <v>224568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
         <v>189.58</v>
       </c>
+      <c r="F7">
+        <v>136909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
       <c r="B8">
-        <v>189.66</v>
+        <v>189.56</v>
       </c>
       <c r="C8">
+        <v>189.83</v>
+      </c>
+      <c r="D8">
+        <v>189.53</v>
+      </c>
+      <c r="E8">
+        <v>189.64</v>
+      </c>
+      <c r="F8">
+        <v>182851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>190.11</v>
+      </c>
+      <c r="C9">
+        <v>190.27</v>
+      </c>
+      <c r="D9">
+        <v>190.11</v>
+      </c>
+      <c r="E9">
+        <v>190.16</v>
+      </c>
+      <c r="F9">
+        <v>221934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>190.21</v>
+      </c>
+      <c r="C10">
+        <v>190.36</v>
+      </c>
+      <c r="D10">
+        <v>190.1</v>
+      </c>
+      <c r="E10">
+        <v>190.29</v>
+      </c>
+      <c r="F10">
+        <v>250047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>190.18</v>
+      </c>
+      <c r="C11">
+        <v>190.23</v>
+      </c>
+      <c r="D11">
+        <v>190.02</v>
+      </c>
+      <c r="E11">
+        <v>190.13</v>
+      </c>
+      <c r="F11">
+        <v>178103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>189.96</v>
+      </c>
+      <c r="C12">
+        <v>190.27</v>
+      </c>
+      <c r="D12">
+        <v>189.88</v>
+      </c>
+      <c r="E12">
+        <v>190.15</v>
+      </c>
+      <c r="F12">
+        <v>215205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>189.59</v>
+      </c>
+      <c r="C13">
+        <v>189.84</v>
+      </c>
+      <c r="D13">
         <v>189.5</v>
       </c>
-      <c r="D8">
-        <v>189.58</v>
-      </c>
-      <c r="E8">
-        <v>136909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>189.56</v>
-      </c>
-      <c r="B9">
-        <v>189.83</v>
-      </c>
-      <c r="C9">
-        <v>189.53</v>
-      </c>
-      <c r="D9">
-        <v>189.64</v>
-      </c>
-      <c r="E9">
-        <v>182851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>190.11</v>
-      </c>
-      <c r="B10">
-        <v>190.27</v>
-      </c>
-      <c r="C10">
-        <v>190.11</v>
-      </c>
-      <c r="D10">
-        <v>190.16</v>
-      </c>
-      <c r="E10">
-        <v>221934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>190.21</v>
-      </c>
-      <c r="B11">
-        <v>190.36</v>
-      </c>
-      <c r="C11">
-        <v>190.1</v>
-      </c>
-      <c r="D11">
-        <v>190.29</v>
-      </c>
-      <c r="E11">
-        <v>250047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>190.18</v>
-      </c>
-      <c r="B12">
-        <v>190.23</v>
-      </c>
-      <c r="C12">
-        <v>190.02</v>
-      </c>
-      <c r="D12">
-        <v>190.13</v>
-      </c>
-      <c r="E12">
-        <v>178103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>189.96</v>
-      </c>
-      <c r="B13">
-        <v>190.27</v>
-      </c>
-      <c r="C13">
-        <v>189.88</v>
-      </c>
-      <c r="D13">
-        <v>190.15</v>
-      </c>
       <c r="E13">
-        <v>215205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>189.59</v>
+        <v>189.79</v>
+      </c>
+      <c r="F13">
+        <v>491535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>189.84</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="C14">
-        <v>189.5</v>
+        <v>0.82</v>
       </c>
       <c r="D14">
-        <v>189.79</v>
+        <v>0.79159999999999997</v>
       </c>
       <c r="E14">
-        <v>491535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="F14">
+        <v>603442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>0.81</v>
+      </c>
+      <c r="C15">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.82430000000000003</v>
+      </c>
+      <c r="F15">
+        <v>234902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="E16">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="F16">
+        <v>217952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="C17">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.872</v>
+      </c>
+      <c r="E17">
+        <v>0.88080000000000003</v>
+      </c>
+      <c r="F17">
+        <v>650712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0.79700000000000004</v>
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="C18">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="D18">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E18">
+        <v>0.84</v>
+      </c>
+      <c r="F18">
+        <v>363661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>0.82</v>
+        <v>0.83640000000000003</v>
       </c>
       <c r="C19">
-        <v>0.79159999999999997</v>
+        <v>0.8427</v>
       </c>
       <c r="D19">
-        <v>0.81010000000000004</v>
+        <v>0.83</v>
       </c>
       <c r="E19">
-        <v>603442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0.81</v>
+        <v>0.83109999999999995</v>
+      </c>
+      <c r="F19">
+        <v>248863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>0.82469999999999999</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="C20">
-        <v>0.79969999999999997</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="D20">
-        <v>0.82430000000000003</v>
+        <v>0.85129999999999995</v>
       </c>
       <c r="E20">
-        <v>234902</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0.84589999999999999</v>
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="F20">
+        <v>367308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>0.84789999999999999</v>
+        <v>0.89390000000000003</v>
       </c>
       <c r="C21">
-        <v>0.83530000000000004</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D21">
-        <v>0.83899999999999997</v>
+        <v>0.88370000000000004</v>
       </c>
       <c r="E21">
-        <v>217952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0.90639999999999998</v>
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="F21">
+        <v>412695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>0.90820000000000001</v>
+        <v>0.90290000000000004</v>
       </c>
       <c r="C22">
-        <v>0.872</v>
+        <v>0.92930000000000001</v>
       </c>
       <c r="D22">
-        <v>0.88080000000000003</v>
+        <v>0.90290000000000004</v>
       </c>
       <c r="E22">
-        <v>650712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0.86450000000000005</v>
+        <v>0.92669999999999997</v>
+      </c>
+      <c r="F22">
+        <v>376549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>0.86560000000000004</v>
+        <v>0.93379999999999996</v>
       </c>
       <c r="C23">
-        <v>0.83499999999999996</v>
+        <v>0.95220000000000005</v>
       </c>
       <c r="D23">
-        <v>0.84</v>
+        <v>0.93069999999999997</v>
       </c>
       <c r="E23">
-        <v>363661</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0.83640000000000003</v>
+        <v>0.95120000000000005</v>
+      </c>
+      <c r="F23">
+        <v>717759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>0.8427</v>
+        <v>0.97489999999999999</v>
       </c>
       <c r="C24">
-        <v>0.83</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="D24">
-        <v>0.83109999999999995</v>
+        <v>0.9143</v>
       </c>
       <c r="E24">
-        <v>248863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0.86950000000000005</v>
+        <v>0.91479999999999995</v>
+      </c>
+      <c r="F24">
+        <v>1149015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>0.88300000000000001</v>
+        <v>0.89759999999999995</v>
       </c>
       <c r="C25">
-        <v>0.85129999999999995</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D25">
-        <v>0.87309999999999999</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="E25">
-        <v>367308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0.89390000000000003</v>
-      </c>
-      <c r="B26">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="C26">
-        <v>0.88370000000000004</v>
-      </c>
-      <c r="D26">
-        <v>0.89080000000000004</v>
-      </c>
-      <c r="E26">
-        <v>412695</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0.90290000000000004</v>
-      </c>
-      <c r="B27">
-        <v>0.92930000000000001</v>
-      </c>
-      <c r="C27">
-        <v>0.90290000000000004</v>
-      </c>
-      <c r="D27">
-        <v>0.92669999999999997</v>
-      </c>
-      <c r="E27">
-        <v>376549</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0.93379999999999996</v>
-      </c>
-      <c r="B28">
-        <v>0.95220000000000005</v>
-      </c>
-      <c r="C28">
-        <v>0.93069999999999997</v>
-      </c>
-      <c r="D28">
-        <v>0.95120000000000005</v>
-      </c>
-      <c r="E28">
-        <v>717759</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0.97489999999999999</v>
-      </c>
-      <c r="B29">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="C29">
-        <v>0.9143</v>
-      </c>
-      <c r="D29">
-        <v>0.91479999999999995</v>
-      </c>
-      <c r="E29">
-        <v>1149015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0.89759999999999995</v>
-      </c>
-      <c r="B30">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="C30">
-        <v>0.89739999999999998</v>
-      </c>
-      <c r="D30">
         <v>0.91539999999999999</v>
       </c>
-      <c r="E30">
+      <c r="F25">
         <v>313064</v>
       </c>
     </row>
